--- a/ValueSet-OpenElisSpecimenStatusVS.xlsx
+++ b/ValueSet-OpenElisSpecimenStatusVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T05:49:08+00:00</t>
+    <t>2023-03-03T05:49:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenElisSpecimenStatusVS.xlsx
+++ b/ValueSet-OpenElisSpecimenStatusVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T05:49:15+00:00</t>
+    <t>2023-03-05T22:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
